--- a/sandbox/simple_kalman_filter.xlsx
+++ b/sandbox/simple_kalman_filter.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztche\Documents\UG 3\Dissertation\sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1B7F29-BE16-4F8B-92FA-1ACBCCEA4496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357B437C-8F63-4D5E-92D0-4A5F583AC2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{371EB751-2FC7-4CBF-A8DC-FC3D1AAE728A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{371EB751-2FC7-4CBF-A8DC-FC3D1AAE728A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Structure" sheetId="1" r:id="rId1"/>
-    <sheet name="Beta_applied" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Structure" sheetId="1" r:id="rId2"/>
+    <sheet name="Beta_applied" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,19 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>kalman gain</t>
   </si>
@@ -71,14 +60,130 @@
   </si>
   <si>
     <t>beta MLE</t>
+  </si>
+  <si>
+    <t>OLS measurement</t>
+  </si>
+  <si>
+    <t>OLS Karman</t>
+  </si>
+  <si>
+    <t>lag</t>
+  </si>
+  <si>
+    <t>AR coeff</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
+  </si>
+  <si>
+    <t>RESIDUAL OUTPUT</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Predicted Y</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>true variables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -94,7 +199,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -102,12 +207,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -208,6 +341,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>simple Kalman</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -222,63 +358,63 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Structure!$C$4:$T$4</c:f>
+              <c:f>Structure!$C$5:$T$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.86872234738152732</c:v>
+                  <c:v>0.74852190270247498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48860316470199799</c:v>
+                  <c:v>0.90829623217703404</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50605590745498441</c:v>
+                  <c:v>0.90490342084687814</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55730624495715586</c:v>
+                  <c:v>0.91090981330571552</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54472826772001592</c:v>
+                  <c:v>0.91633316919462671</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55526225714295752</c:v>
+                  <c:v>0.92014708878165941</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47774836181476782</c:v>
+                  <c:v>0.95533674363014176</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46357955641858861</c:v>
+                  <c:v>0.98314524230315337</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47197772705491375</c:v>
+                  <c:v>0.98280372290202289</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.44580336947216109</c:v>
+                  <c:v>1.0043699831430311</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.49467623288151158</c:v>
+                  <c:v>1.0389309535584688</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.47260795155863849</c:v>
+                  <c:v>1.0478127589467678</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.49516485673079685</c:v>
+                  <c:v>1.1019925308971696</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5040456688606757</c:v>
+                  <c:v>1.1231676902231902</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.47459242164946935</c:v>
+                  <c:v>1.1517245257723039</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.48361810219504492</c:v>
+                  <c:v>1.1747405396494337</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.50765063618016826</c:v>
+                  <c:v>1.1802962147449594</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.53005334495576917</c:v>
+                  <c:v>1.1927050514143478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -291,15 +427,100 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2</c:v>
+            <c:v>OLS Kalman</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Structure!$C$12:$T$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="1">
+                  <c:v>0.89965554728694497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84097740734630722</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86983524890741692</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92100856762079708</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0799529111903745</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99492114669905307</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0463453281616781</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0675755952141248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0310813614748577</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0899569365400879</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1510204302746521</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1061257050275284</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0686684302938536</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1062170223522128</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1641223756483643</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3107934405978212</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3025993634808504</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-408D-42DE-98A5-9B657F9433BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>true values</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -315,58 +536,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>0.87476869467620055</c:v>
+                  <c:v>1.0308955864768699</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10169761369414521</c:v>
+                  <c:v>1.0880427720706738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.54127298139442248</c:v>
+                  <c:v>1.0618756483455347</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71197224329729458</c:v>
+                  <c:v>1.1112106233218029</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49419180081635683</c:v>
+                  <c:v>1.203488134079987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60812027035758365</c:v>
+                  <c:v>1.2567970399753847</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1281113766153483E-2</c:v>
+                  <c:v>1.1604806270371708</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36414495921426049</c:v>
+                  <c:v>1.2674107336449443</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.53931302690760829</c:v>
+                  <c:v>1.3134716308600942</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20976685349707613</c:v>
+                  <c:v>1.2233466358545628</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.9842774071347048</c:v>
+                  <c:v>1.3159457551301852</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.22946286614244749</c:v>
+                  <c:v>1.3054857399977595</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.76625043319213004</c:v>
+                  <c:v>1.4298291095705555</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.61965477803746072</c:v>
+                  <c:v>1.3123356160016384</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.1721124078307321E-2</c:v>
+                  <c:v>1.3570631540679725</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.6191644482411881</c:v>
+                  <c:v>1.466548545419597</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.89260023912914899</c:v>
+                  <c:v>1.4997973443492967</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.91129935562735731</c:v>
+                  <c:v>1.4683429262558259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -374,11 +595,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8F4E-4929-B8E9-B1A937803716}"/>
+              <c16:uniqueId val="{00000002-408D-42DE-98A5-9B657F9433BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -505,6 +727,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1103,15 +1356,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>193675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>498475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>89273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>498475</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>193675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>70224</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1435,11 +1688,431 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2552C052-2B59-4436-9DAF-BBFFB0426278}">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.85364756599223901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.7287141669244741</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.66204750025780745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.21501793941854874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.862819382233551</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.862819382233551</v>
+      </c>
+      <c r="E12" s="1">
+        <v>40.292234872522826</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1.8054970264882992E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.69349071407698049</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4.6232714271798696E-2</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2.5563100963105314</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D17" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F17" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G17" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H17" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I17" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.83450396229206492</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.13146729422060624</v>
+      </c>
+      <c r="D18" s="2">
+        <v>6.347616471757159</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.3091689716474689E-5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.55428805776958057</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.1147198668145493</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.55428805776958057</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1.1147198668145493</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.73105640426552931</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-6.654818827597897E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1">
+        <v>8.0884576373891889E-2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.4351994987665404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.4882549281774326</v>
+      </c>
+      <c r="C27" s="1">
+        <v>9.3803322001087541E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.15266999899463474</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6.3303468483247416E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.60607456680059335</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.21186080302125587</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.31549942031149575</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-0.14615002538360128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.23950734656962416</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.10539762244589593</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.37820795012232439</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.28584963809699387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.33060961518683274</v>
+      </c>
+      <c r="C33" s="1">
+        <v>7.5073645840810665E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>10</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.35650545627563218</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.10728149435921774</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.47181854327417166</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.12215527450322433</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.17886463442291192</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4.9863959558370835E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.48138066332507529</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.24982641936227229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>14</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.72609614606958939</v>
+      </c>
+      <c r="C38" s="1">
+        <v>-2.031028100112986E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>15</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.5661240200008355</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4.3327622320922354E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="2">
+        <v>16</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.63527442734227457</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1.1010300478268786E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEEE7367-6A4E-45BB-8C80-9040061045B9}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1447,9 +2120,9 @@
     <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1">
         <v>-1</v>
@@ -1527,397 +2200,954 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="C2">
-        <f ca="1">RAND()</f>
-        <v>0.87476869467620055</v>
+        <f ca="1">1+RAND()*0.1</f>
+        <v>1.0308955864768699</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:T2" ca="1" si="1">RAND()</f>
-        <v>0.10169761369414521</v>
+        <f ca="1">(1+0.1*IF(RAND() &gt;= 0.5, RAND(), -RAND()))*C2</f>
+        <v>1.0880427720706738</v>
       </c>
       <c r="E2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.54127298139442248</v>
+        <f t="shared" ref="E2:T2" ca="1" si="1">(1+0.1*IF(RAND() &gt;= 0.5, RAND(), -RAND()))*D2</f>
+        <v>1.0618756483455347</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71197224329729458</v>
+        <v>1.1112106233218029</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49419180081635683</v>
+        <v>1.203488134079987</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60812027035758365</v>
+        <v>1.2567970399753847</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1281113766153483E-2</v>
+        <v>1.1604806270371708</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36414495921426049</v>
+        <v>1.2674107336449443</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53931302690760829</v>
+        <v>1.3134716308600942</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20976685349707613</v>
+        <v>1.2233466358545628</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9842774071347048</v>
+        <v>1.3159457551301852</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22946286614244749</v>
+        <v>1.3054857399977595</v>
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76625043319213004</v>
+        <v>1.4298291095705555</v>
       </c>
       <c r="P2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61965477803746072</v>
+        <v>1.3123356160016384</v>
       </c>
       <c r="Q2">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1721124078307321E-2</v>
+        <v>1.3570631540679725</v>
       </c>
       <c r="R2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.6191644482411881</v>
+        <v>1.466548545419597</v>
       </c>
       <c r="S2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89260023912914899</v>
+        <v>1.4997973443492967</v>
       </c>
       <c r="T2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91129935562735731</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+        <v>1.4683429262558259</v>
+      </c>
+      <c r="U2">
+        <f ca="1">AVERAGE(C2:T2)</f>
+        <v>1.2706870901366587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <f ca="1">_xlfn.VAR.P(C2:T2)</f>
-        <v>8.9266322742344945E-2</v>
+        <f ca="1">C2+IF(RAND() &gt; 0.5, RAND(), -RAND())*0.5</f>
+        <v>0.56932918085106765</v>
       </c>
       <c r="D3">
-        <f ca="1">C3</f>
-        <v>8.9266322742344945E-2</v>
+        <f t="shared" ref="D3:T3" ca="1" si="2">D2+IF(RAND() &gt; 0.5, RAND(), -RAND())*0.5</f>
+        <v>1.1325268497020462</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:T3" ca="1" si="2">D3</f>
-        <v>8.9266322742344945E-2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0.89674906752052896</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9266322742344945E-2</v>
+        <v>0.93135209434189603</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9266322742344945E-2</v>
+        <v>0.94021448732961588</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9266322742344945E-2</v>
+        <v>0.9407553012133536</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9266322742344945E-2</v>
+        <v>1.180670911483352</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9266322742344945E-2</v>
+        <v>1.1890232598364903</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9266322742344945E-2</v>
+        <v>0.97993379166245864</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9266322742344945E-2</v>
+        <v>1.2071666033031754</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9266322742344945E-2</v>
+        <v>1.3984832720973139</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9266322742344945E-2</v>
+        <v>1.1490957232662782</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9266322742344945E-2</v>
+        <v>1.7740070413255142</v>
       </c>
       <c r="P3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9266322742344945E-2</v>
+        <v>1.4069872612079473</v>
       </c>
       <c r="Q3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9266322742344945E-2</v>
+        <v>1.5630406449444774</v>
       </c>
       <c r="R3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9266322742344945E-2</v>
+        <v>1.5292658865712629</v>
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9266322742344945E-2</v>
+        <v>1.2714282911730976</v>
       </c>
       <c r="T3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.9266322742344945E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+        <v>1.408661257628385</v>
+      </c>
+      <c r="U3">
+        <f ca="1">AVERAGE(C3:T3)</f>
+        <v>1.192705051414348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <f ca="1">AVERAGE(C2:T2)</f>
-        <v>0.53005334495576917</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <f ca="1">B4+C6*(C2-B4)</f>
-        <v>0.86872234738152732</v>
+        <f ca="1">_xlfn.VAR.P(C3:T3)</f>
+        <v>8.0684160293367557E-2</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:T4" ca="1" si="3">C4+D6*(D2-C4)</f>
-        <v>0.48860316470199799</v>
+        <f ca="1">C4</f>
+        <v>8.0684160293367557E-2</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.50605590745498441</v>
+        <f t="shared" ref="E4:T4" ca="1" si="3">D4</f>
+        <v>8.0684160293367557E-2</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55730624495715586</v>
+        <v>8.0684160293367557E-2</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54472826772001592</v>
+        <v>8.0684160293367557E-2</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55526225714295752</v>
+        <v>8.0684160293367557E-2</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47774836181476782</v>
+        <v>8.0684160293367557E-2</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46357955641858861</v>
+        <v>8.0684160293367557E-2</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47197772705491375</v>
+        <v>8.0684160293367557E-2</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44580336947216109</v>
+        <v>8.0684160293367557E-2</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49467623288151158</v>
+        <v>8.0684160293367557E-2</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47260795155863849</v>
+        <v>8.0684160293367557E-2</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49516485673079685</v>
+        <v>8.0684160293367557E-2</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5040456688606757</v>
+        <v>8.0684160293367557E-2</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47459242164946935</v>
+        <v>8.0684160293367557E-2</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48361810219504492</v>
+        <v>8.0684160293367557E-2</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50765063618016826</v>
+        <v>8.0684160293367557E-2</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53005334495576917</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+        <v>8.0684160293367557E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <f>5</f>
-        <v>5</v>
+        <f ca="1">AVERAGE(C3:T3)</f>
+        <v>1.192705051414348</v>
       </c>
       <c r="C5">
-        <f ca="1">(1-C6)*B5</f>
-        <v>8.7700581067493011E-2</v>
+        <f ca="1">B5+C7*(C3-B5)</f>
+        <v>0.74852190270247498</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:T5" ca="1" si="4">(1-D6)*C5</f>
-        <v>4.4238262667885386E-2</v>
+        <f t="shared" ref="D5:T5" ca="1" si="4">C5+D7*(D3-C5)</f>
+        <v>0.90829623217703404</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="4"/>
-        <v>2.9579411229492342E-2</v>
+        <v>0.90490342084687814</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="4"/>
-        <v>2.22174173282998E-2</v>
+        <v>0.91090981330571552</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="4"/>
-        <v>1.7789743548903413E-2</v>
+        <v>0.91633316919462671</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="4"/>
-        <v>1.4833582478359556E-2</v>
+        <v>0.92014708878165941</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="4"/>
-        <v>1.271989016830611E-2</v>
+        <v>0.95533674363014176</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="4"/>
-        <v>1.113344430198575E-2</v>
+        <v>0.98314524230315337</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="4"/>
-        <v>9.8988440068407593E-3</v>
+        <v>0.98280372290202289</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="4"/>
-        <v>8.9107237234392102E-3</v>
+        <v>1.0043699831430311</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="4"/>
-        <v>8.1019705562400471E-3</v>
+        <v>1.0389309535584688</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="4"/>
-        <v>7.4278093414297365E-3</v>
+        <v>1.0478127589467678</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="4"/>
-        <v>6.8572229943199637E-3</v>
+        <v>1.1019925308971696</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="4"/>
-        <v>6.3680451676650035E-3</v>
+        <v>1.1231676902231902</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="4"/>
-        <v>5.9440135131077192E-3</v>
+        <v>1.1517245257723039</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="4"/>
-        <v>5.5729267379364599E-3</v>
+        <v>1.1747405396494337</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2454514300169846E-3</v>
+        <v>1.1802962147449594</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9543262136551762E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+        <v>1.1927050514143478</v>
+      </c>
+      <c r="U5">
+        <f ca="1">AVERAGE(C5:T5)</f>
+        <v>1.0136743102329653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <f>0.2</f>
+        <v>0.2</v>
       </c>
       <c r="C6">
-        <f ca="1">B5/(C3+B5)</f>
-        <v>0.9824598837865014</v>
+        <f ca="1">(1-C7)*B6</f>
+        <v>5.749106768906196E-2</v>
       </c>
       <c r="D6">
-        <f ca="1">C5/(D3+C5)</f>
-        <v>0.49557617373321278</v>
+        <f t="shared" ref="D6:T6" ca="1" si="5">(1-D7)*C6</f>
+        <v>3.3570550876536057E-2</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:T6" ca="1" si="5">D5/(E3+D5)</f>
-        <v>0.33136137258470111</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2.3706783556882986E-2</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24888912913358535</v>
+        <v>1.8323063802235431E-2</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19928841025804411</v>
+        <v>1.4932051982970611E-2</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16617221391738818</v>
+        <v>1.2600165254622209E-2</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14249371742376279</v>
+        <v>1.0898226976019196E-2</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12472166389245044</v>
+        <v>9.6013471417834909E-3</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.11089113679984804</v>
+        <v>8.580298807938239E-3</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="5"/>
-        <v>9.9821785525531267E-2</v>
+        <v>7.7555413582800986E-3</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="5"/>
-        <v>9.0761782353522946E-2</v>
+        <v>7.0754347926009218E-3</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="5"/>
-        <v>8.3209536510976206E-2</v>
+        <v>6.504992581064877E-3</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="5"/>
-        <v>7.6817581184702791E-2</v>
+        <v>6.0196692686495133E-3</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="5"/>
-        <v>7.1337599354747649E-2</v>
+        <v>5.6017359629700414E-3</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="5"/>
-        <v>6.6587413153158581E-2</v>
+        <v>5.2380676560939091E-3</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="5"/>
-        <v>6.2430338415775812E-2</v>
+        <v>4.9187398939465462E-3</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.8761818218470409E-2</v>
+        <v>4.6361092577022062E-3</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.5500507486514965E-2</v>
+        <v>4.3841936324651477E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f ca="1">B6/(C4+B6)</f>
+        <v>0.71254466155469021</v>
+      </c>
+      <c r="D7">
+        <f ca="1">C6/(D4+C6)</f>
+        <v>0.41607362280865989</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:T7" ca="1" si="6">D6/(E4+D6)</f>
+        <v>0.29382202740519497</v>
+      </c>
+      <c r="F7">
+        <f ca="1">E6/(F4+E6)</f>
+        <v>0.22709617024720566</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.18506794801702936</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.15616652895448146</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.13507269501712912</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.11899915803638532</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.10634427844003431</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.6122229320859939E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.7692984185181386E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ca="1" si="6"/>
+        <v>8.0622919757889627E-2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ca="1" si="6"/>
+        <v>7.4607819512057874E-2</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.9427951441796407E-2</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.4920644114635356E-2</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ca="1" si="6"/>
+        <v>6.0962893783141701E-2</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.7459967865381711E-2</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ca="1" si="6"/>
+        <v>5.4337723990981905E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <f ca="1">AVERAGE(C2:D2)+IF(RAND() &gt;= 0.5, RAND(), -RAND())*0.1</f>
+        <v>1.0780722296583631</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:T9" ca="1" si="7">AVERAGE(D2:E2)+IF(RAND() &gt;= 0.5, RAND(), -RAND())*0.1</f>
+        <v>1.0077572370494949</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.0423380693343989</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.1036599096439721</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.2941255643941518</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.1922305844616761</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.2538530377827872</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.2792936204663437</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.2355619722198437</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.3061135546275788</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.3792869564252719</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.3254888592612812</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.2806031829479012</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.325598286332704</v>
+      </c>
+      <c r="R9">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.3949872358316466</v>
+      </c>
+      <c r="S9">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.5707456163510241</v>
+      </c>
+      <c r="T9">
+        <f t="shared" ca="1" si="7"/>
+        <v>1.5609265172367852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <f ca="1">D9</f>
+        <v>1.0780722296583631</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:T10" ca="1" si="8">E9</f>
+        <v>1.0077572370494949</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.0423380693343989</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.1036599096439721</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.2941255643941518</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.1922305844616761</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.2538530377827872</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.2792936204663437</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.2355619722198437</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.3061135546275788</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.3792869564252719</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.3254888592612812</v>
+      </c>
+      <c r="O10">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.2806031829479012</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.325598286332704</v>
+      </c>
+      <c r="Q10">
+        <f ca="1">R9</f>
+        <v>1.3949872358316466</v>
+      </c>
+      <c r="R10">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.5707456163510241</v>
+      </c>
+      <c r="S10">
+        <f t="shared" ca="1" si="8"/>
+        <v>1.5609265172367852</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <f>Sheet1!$B$18</f>
+        <v>0.83450396229206492</v>
+      </c>
+      <c r="E11">
+        <f>Sheet1!$B$18</f>
+        <v>0.83450396229206492</v>
+      </c>
+      <c r="F11">
+        <f>Sheet1!$B$18</f>
+        <v>0.83450396229206492</v>
+      </c>
+      <c r="G11">
+        <f>Sheet1!$B$18</f>
+        <v>0.83450396229206492</v>
+      </c>
+      <c r="H11">
+        <f>Sheet1!$B$18</f>
+        <v>0.83450396229206492</v>
+      </c>
+      <c r="I11">
+        <f>Sheet1!$B$18</f>
+        <v>0.83450396229206492</v>
+      </c>
+      <c r="J11">
+        <f>Sheet1!$B$18</f>
+        <v>0.83450396229206492</v>
+      </c>
+      <c r="K11">
+        <f>Sheet1!$B$18</f>
+        <v>0.83450396229206492</v>
+      </c>
+      <c r="L11">
+        <f>Sheet1!$B$18</f>
+        <v>0.83450396229206492</v>
+      </c>
+      <c r="M11">
+        <f>Sheet1!$B$18</f>
+        <v>0.83450396229206492</v>
+      </c>
+      <c r="N11">
+        <f>Sheet1!$B$18</f>
+        <v>0.83450396229206492</v>
+      </c>
+      <c r="O11">
+        <f>Sheet1!$B$18</f>
+        <v>0.83450396229206492</v>
+      </c>
+      <c r="P11">
+        <f>Sheet1!$B$18</f>
+        <v>0.83450396229206492</v>
+      </c>
+      <c r="Q11">
+        <f>Sheet1!$B$18</f>
+        <v>0.83450396229206492</v>
+      </c>
+      <c r="R11">
+        <f>Sheet1!$B$18</f>
+        <v>0.83450396229206492</v>
+      </c>
+      <c r="S11">
+        <f>Sheet1!$B$18</f>
+        <v>0.83450396229206492</v>
+      </c>
+      <c r="T11">
+        <f>Sheet1!$B$18</f>
+        <v>0.83450396229206492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <f ca="1">D9*D11</f>
+        <v>0.89965554728694497</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:T12" ca="1" si="9">E9*E11</f>
+        <v>0.84097740734630722</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.86983524890741692</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.92100856762079708</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.0799529111903745</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="9"/>
+        <v>0.99492114669905307</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.0463453281616781</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.0675755952141248</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.0310813614748577</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.0899569365400879</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.1510204302746521</v>
+      </c>
+      <c r="O12">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.1061257050275284</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.0686684302938536</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.1062170223522128</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.1641223756483643</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.3107934405978212</v>
+      </c>
+      <c r="T12">
+        <f t="shared" ca="1" si="9"/>
+        <v>1.3025993634808504</v>
+      </c>
+      <c r="U12">
+        <f ca="1">AVERAGE(D12:T12)</f>
+        <v>1.0618151069480546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <f ca="1">D9</f>
+        <v>1.0780722296583631</v>
+      </c>
+      <c r="C15">
+        <f ca="1">D10</f>
+        <v>1.0077572370494949</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <f ca="1">E9</f>
+        <v>1.0077572370494949</v>
+      </c>
+      <c r="C16">
+        <f ca="1">E10</f>
+        <v>1.0423380693343989</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <f ca="1">F9</f>
+        <v>1.0423380693343989</v>
+      </c>
+      <c r="C17">
+        <f ca="1">F10</f>
+        <v>1.1036599096439721</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <f ca="1">G9</f>
+        <v>1.1036599096439721</v>
+      </c>
+      <c r="C18">
+        <f ca="1">G10</f>
+        <v>1.2941255643941518</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <f ca="1">H9</f>
+        <v>1.2941255643941518</v>
+      </c>
+      <c r="C19">
+        <f ca="1">H10</f>
+        <v>1.1922305844616761</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <f ca="1">I9</f>
+        <v>1.1922305844616761</v>
+      </c>
+      <c r="C20">
+        <f ca="1">I10</f>
+        <v>1.2538530377827872</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <f ca="1">J9</f>
+        <v>1.2538530377827872</v>
+      </c>
+      <c r="C21">
+        <f ca="1">J10</f>
+        <v>1.2792936204663437</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <f ca="1">K9</f>
+        <v>1.2792936204663437</v>
+      </c>
+      <c r="C22">
+        <f ca="1">K10</f>
+        <v>1.2355619722198437</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <f ca="1">L9</f>
+        <v>1.2355619722198437</v>
+      </c>
+      <c r="C23">
+        <f ca="1">L10</f>
+        <v>1.3061135546275788</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <f ca="1">M9</f>
+        <v>1.3061135546275788</v>
+      </c>
+      <c r="C24">
+        <f ca="1">M10</f>
+        <v>1.3792869564252719</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <f ca="1">N9</f>
+        <v>1.3792869564252719</v>
+      </c>
+      <c r="C25">
+        <f ca="1">N10</f>
+        <v>1.3254888592612812</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <f ca="1">O9</f>
+        <v>1.3254888592612812</v>
+      </c>
+      <c r="C26">
+        <f ca="1">O10</f>
+        <v>1.2806031829479012</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <f ca="1">P9</f>
+        <v>1.2806031829479012</v>
+      </c>
+      <c r="C27">
+        <f ca="1">P10</f>
+        <v>1.325598286332704</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <f ca="1">Q9</f>
+        <v>1.325598286332704</v>
+      </c>
+      <c r="C28">
+        <f ca="1">Q10</f>
+        <v>1.3949872358316466</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <f ca="1">R9</f>
+        <v>1.3949872358316466</v>
+      </c>
+      <c r="C29">
+        <f ca="1">R10</f>
+        <v>1.5707456163510241</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <f ca="1">S9</f>
+        <v>1.5707456163510241</v>
+      </c>
+      <c r="C30">
+        <f ca="1">S10</f>
+        <v>1.5609265172367852</v>
       </c>
     </row>
   </sheetData>
@@ -1926,7 +3156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F02FEB-B418-4E0A-AAC6-E87921B1FFBB}">
   <dimension ref="A1:T6"/>
   <sheetViews>
@@ -1938,7 +3168,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1">
         <v>-1</v>
@@ -2018,242 +3248,242 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <f ca="1">RAND()</f>
-        <v>0.66803313679317566</v>
+        <v>0.20915664025100922</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:T2" ca="1" si="1">RAND()</f>
-        <v>2.3914687598094675E-2</v>
+        <v>0.52883766759630724</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51109829242033089</v>
+        <v>0.4441725030924365</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66971988674669014</v>
+        <v>0.53493610298231953</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34246873491972718</v>
+        <v>0.53828948135306576</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36955287537176162</v>
+        <v>0.67111091613902307</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38880470382496823</v>
+        <v>0.52116290978625601</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.64978665953169346</v>
+        <v>0.60491122559224297</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13172044327849874</v>
+        <v>0.91133935376690878</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5098657104846542E-2</v>
+        <v>0.45020534047739114</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34957847436850242</v>
+        <v>7.1910600332341978E-2</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41781139889664842</v>
+        <v>0.87732017070156776</v>
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93364760010547698</v>
+        <v>0.83823170116261669</v>
       </c>
       <c r="P2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15013272773066799</v>
+        <v>4.2596048976977441E-2</v>
       </c>
       <c r="Q2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.9229546224482601</v>
+        <v>0.72785472411628915</v>
       </c>
       <c r="R2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.793009358217175</v>
+        <v>0.12387250097400504</v>
       </c>
       <c r="S2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65574336729293825</v>
+        <v>0.68997335264874837</v>
       </c>
       <c r="T2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92092872080149968</v>
+        <v>7.3704377988895065E-2</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <f ca="1">_xlfn.VAR.P(C2:T2)</f>
-        <v>8.1901840806461457E-2</v>
+        <v>7.5722211649713572E-2</v>
       </c>
       <c r="D3">
         <f ca="1">C3</f>
-        <v>8.1901840806461457E-2</v>
+        <v>7.5722211649713572E-2</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:T3" ca="1" si="2">D3</f>
-        <v>8.1901840806461457E-2</v>
+        <v>7.5722211649713572E-2</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1901840806461457E-2</v>
+        <v>7.5722211649713572E-2</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1901840806461457E-2</v>
+        <v>7.5722211649713572E-2</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1901840806461457E-2</v>
+        <v>7.5722211649713572E-2</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1901840806461457E-2</v>
+        <v>7.5722211649713572E-2</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1901840806461457E-2</v>
+        <v>7.5722211649713572E-2</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1901840806461457E-2</v>
+        <v>7.5722211649713572E-2</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1901840806461457E-2</v>
+        <v>7.5722211649713572E-2</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1901840806461457E-2</v>
+        <v>7.5722211649713572E-2</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1901840806461457E-2</v>
+        <v>7.5722211649713572E-2</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1901840806461457E-2</v>
+        <v>7.5722211649713572E-2</v>
       </c>
       <c r="P3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1901840806461457E-2</v>
+        <v>7.5722211649713572E-2</v>
       </c>
       <c r="Q3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1901840806461457E-2</v>
+        <v>7.5722211649713572E-2</v>
       </c>
       <c r="R3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1901840806461457E-2</v>
+        <v>7.5722211649713572E-2</v>
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1901840806461457E-2</v>
+        <v>7.5722211649713572E-2</v>
       </c>
       <c r="T3">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1901840806461457E-2</v>
+        <v>7.5722211649713572E-2</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <f ca="1">AVERAGE(C2:T2)</f>
-        <v>0.49911135263616419</v>
+        <v>0.49219920099657788</v>
       </c>
       <c r="C4">
         <f ca="1">B4+C6*(C2-B4)</f>
-        <v>0.66531072980694084</v>
+        <v>0.21337921347250294</v>
       </c>
       <c r="D4">
         <f t="shared" ref="D4:T4" ca="1" si="3">C4+D6*(D2-C4)</f>
-        <v>0.3472179471472262</v>
+        <v>0.36992305593724789</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40154807971369749</v>
+        <v>0.39454855848790271</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46831760412399681</v>
+        <v>0.4295130651229247</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44323001905907111</v>
+        <v>0.45120265302632029</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43098392769204102</v>
+        <v>0.48776175234988073</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42497239159310429</v>
+        <v>0.49252304525139678</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45301675296491312</v>
+        <v>0.50654502341404806</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41738201967205224</v>
+        <v>0.55144661461342803</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38420802364216677</v>
+        <v>0.54133779644120761</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38106456380178688</v>
+        <v>0.49872126984307141</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.3841226257113638</v>
+        <v>0.5302314112879527</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42634058176758649</v>
+        <v>0.5538961728462598</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40663450596328438</v>
+        <v>0.51741419965124924</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44101829911624096</v>
+        <v>0.53142941777141439</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46299524091019656</v>
+        <v>0.50598119791520202</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47432245164552927</v>
+        <v>0.51679463269720805</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4991113526361643</v>
+        <v>0.49219920099657788</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <f>5</f>
@@ -2261,152 +3491,152 @@
       </c>
       <c r="C5">
         <f ca="1">(1-C6)*B5</f>
-        <v>8.0581879945819668E-2</v>
+        <v>7.4592549091750393E-2</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:T5" ca="1" si="4">(1-D6)*C5</f>
-        <v>4.0618249463094322E-2</v>
+        <v>3.7576567743284175E-2</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="4"/>
-        <v>2.7152358393177926E-2</v>
+        <v>2.511395825242773E-2</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="4"/>
-        <v>2.0391953276067885E-2</v>
+        <v>1.8859150084715982E-2</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="4"/>
-        <v>1.6326880099899955E-2</v>
+        <v>1.509871002130788E-2</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3613142087871684E-2</v>
+        <v>1.2588594068803926E-2</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="4"/>
-        <v>1.1672947660892646E-2</v>
+        <v>1.0794105848027837E-2</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0216810710698247E-2</v>
+        <v>9.4473920207608555E-3</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="4"/>
-        <v>9.083671879646274E-3</v>
+        <v>8.3994451929317489E-3</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="4"/>
-        <v>8.1767901972652594E-3</v>
+        <v>7.560770799237464E-3</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="4"/>
-        <v>7.4345509204791025E-3</v>
+        <v>6.8743730094652043E-3</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="4"/>
-        <v>6.815849556782448E-3</v>
+        <v>6.3022306567485399E-3</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="4"/>
-        <v>6.2922132336265613E-3</v>
+        <v>5.8180077820294994E-3</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="4"/>
-        <v>5.8432946777403679E-3</v>
+        <v>5.4028848551149989E-3</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="4"/>
-        <v>5.4541666365960657E-3</v>
+        <v>5.0430558254399025E-3</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1136298541755928E-3</v>
+        <v>4.7281628912175609E-3</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="4"/>
-        <v>4.8131176568963459E-3</v>
+        <v>4.4502832113098821E-3</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="4"/>
-        <v>4.5459653455806872E-3</v>
+        <v>4.2032530958669486E-3</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f ca="1">B5/(C3+B5)</f>
-        <v>0.98388362401083607</v>
+        <v>0.98508149018164992</v>
       </c>
       <c r="D6">
         <f ca="1">C5/(D3+C5)</f>
-        <v>0.49593817505368992</v>
+        <v>0.49624234322567246</v>
       </c>
       <c r="E6">
         <f t="shared" ref="E6:T6" ca="1" si="5">D5/(E3+D5)</f>
-        <v>0.33152317610712118</v>
+        <v>0.33165906944983853</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24898040233619645</v>
+        <v>0.24905704249576444</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19934692479600391</v>
+        <v>0.19939605159914786</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16621289526373753</v>
+        <v>0.16624704686437328</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14252363006683161</v>
+        <v>0.14254873983291355</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12474457973223252</v>
+        <v>0.12476381519948104</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.11090925173600785</v>
+        <v>0.11092445677349047</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="5"/>
-        <v>9.9836464196054686E-2</v>
+        <v>9.9848784584015304E-2</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="5"/>
-        <v>9.0773917255991279E-2</v>
+        <v>9.0784102308918854E-2</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="5"/>
-        <v>8.3219735840720288E-2</v>
+        <v>8.3228296155720888E-2</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="5"/>
-        <v>7.6826273642559589E-2</v>
+        <v>7.6833569111045733E-2</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="5"/>
-        <v>7.1345095790317989E-2</v>
+        <v>7.1351387359212662E-2</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="5"/>
-        <v>6.6593944444845385E-2</v>
+        <v>6.6599425922327482E-2</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="5"/>
-        <v>6.2436079626822814E-2</v>
+        <v>6.24408979638598E-2</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.8766904498154159E-2</v>
+        <v>5.8771173138690486E-2</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.5505044829493547E-2</v>
+        <v>5.5508852743379265E-2</v>
       </c>
     </row>
   </sheetData>
